--- a/admintool/Transplant Centres.xlsx
+++ b/admintool/Transplant Centres.xlsx
@@ -1241,9 +1241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
